--- a/data/phrases_google.xlsx
+++ b/data/phrases_google.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dn/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loic/Documents/GitHub/BSA2021_Google/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2308B962-946C-6B40-96F6-3C620256EC9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB9E798-9646-4B41-881B-EA68202B890E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3057,9 +3057,6 @@
     <t> En effet, de nombreux concepts peuvent être abordés sans ordinateur.</t>
   </si>
   <si>
-    <t> On en trouve des exemples dans l'ouvrage L'informatique sans ordinateur, disponible gratuitement, qui propose un catalogue d'exercices et d'activités d'éveil débranchées à partir du primaire.</t>
-  </si>
-  <si>
     <t> De même, on peut travailler des concepts issus de la science informatique à partir de situations de la vie quotidienne ou d'activités ludiques, pas besoin d'aller chercher midi à quatorze heures.</t>
   </si>
   <si>
@@ -3115,6 +3112,9 @@
   </si>
   <si>
     <t>Phrases</t>
+  </si>
+  <si>
+    <t> On en trouve des exemples dans l'ouvrage "L'informatique sans ordinateur", disponible gratuitement, qui propose un catalogue d'exercices et d'activités d'éveil débranchées à partir du primaire.</t>
   </si>
 </sst>
 </file>
@@ -3218,10 +3218,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Insatisfaisant" xfId="2" builtinId="27"/>
+    <cellStyle name="Neutre" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Satisfaisant" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3506,8 +3506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1021"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A988" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1016" sqref="A1016"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3517,7 +3517,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1">
         <v>1</v>
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="5"/>
@@ -3545,7 +3545,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="5"/>
@@ -3556,7 +3556,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="5"/>
@@ -3567,7 +3567,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="5"/>
@@ -3578,7 +3578,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="5"/>
@@ -3586,10 +3586,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B7" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="5"/>
@@ -3597,10 +3597,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B8" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="5"/>
@@ -3611,7 +3611,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="5"/>
@@ -3622,7 +3622,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="5"/>
@@ -3633,7 +3633,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="5"/>
@@ -3644,7 +3644,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="5"/>
@@ -3655,7 +3655,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="5"/>
@@ -3666,7 +3666,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="5"/>
@@ -3680,7 +3680,7 @@
         <v>54</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>54</v>
@@ -3692,7 +3692,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="5"/>
@@ -3703,7 +3703,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="5"/>
@@ -3711,10 +3711,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B18" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="5"/>
@@ -3722,10 +3722,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B19" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="5"/>
@@ -3736,7 +3736,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="5"/>
@@ -3747,7 +3747,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="5"/>
@@ -3758,7 +3758,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="5"/>
@@ -3769,7 +3769,7 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="5"/>
@@ -3780,7 +3780,7 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="5"/>
@@ -3791,7 +3791,7 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="5"/>
@@ -3802,7 +3802,7 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="5"/>
@@ -3813,7 +3813,7 @@
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="5"/>
@@ -3824,7 +3824,7 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="5"/>
@@ -3835,7 +3835,7 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="5"/>
@@ -3846,7 +3846,7 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="5"/>
@@ -3857,7 +3857,7 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="5"/>
@@ -3868,7 +3868,7 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="5"/>
@@ -3882,7 +3882,7 @@
         <v>261</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>261</v>
@@ -3894,7 +3894,7 @@
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="5"/>
@@ -3905,7 +3905,7 @@
         <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="5"/>
@@ -3916,7 +3916,7 @@
         <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="5"/>
@@ -3927,7 +3927,7 @@
         <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="5"/>
@@ -3938,7 +3938,7 @@
         <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="5"/>
@@ -3949,7 +3949,7 @@
         <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="5"/>
@@ -3960,7 +3960,7 @@
         <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="5"/>
@@ -3971,7 +3971,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="5"/>
@@ -3982,7 +3982,7 @@
         <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="5"/>
@@ -3993,7 +3993,7 @@
         <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="5"/>
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="5"/>
@@ -4015,7 +4015,7 @@
         <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="5"/>
@@ -4026,7 +4026,7 @@
         <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="5"/>
@@ -4037,7 +4037,7 @@
         <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="5"/>
@@ -4048,7 +4048,7 @@
         <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="5"/>
@@ -4059,7 +4059,7 @@
         <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="5"/>
@@ -4070,7 +4070,7 @@
         <v>44</v>
       </c>
       <c r="B50" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="5"/>
@@ -4081,7 +4081,7 @@
         <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="5"/>
@@ -4092,7 +4092,7 @@
         <v>46</v>
       </c>
       <c r="B52" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="5"/>
@@ -4103,7 +4103,7 @@
         <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="5"/>
@@ -4114,7 +4114,7 @@
         <v>48</v>
       </c>
       <c r="B54" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="5"/>
@@ -4125,7 +4125,7 @@
         <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="5"/>
@@ -4136,7 +4136,7 @@
         <v>50</v>
       </c>
       <c r="B56" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="5"/>
@@ -4147,7 +4147,7 @@
         <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="5"/>
@@ -4158,7 +4158,7 @@
         <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="5"/>
@@ -4169,7 +4169,7 @@
         <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="5"/>
@@ -4180,13 +4180,13 @@
         <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F60" s="3"/>
     </row>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B77" t="s">
         <v>54</v>
@@ -4379,7 +4379,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B78" t="s">
         <v>54</v>
@@ -4448,13 +4448,13 @@
         <v>77</v>
       </c>
       <c r="B84" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F84" s="4"/>
     </row>
@@ -4463,13 +4463,13 @@
         <v>78</v>
       </c>
       <c r="B85" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F85" s="4"/>
     </row>
@@ -4739,13 +4739,13 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B110" t="s">
         <v>261</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>261</v>
@@ -4837,7 +4837,7 @@
         <v>261</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E118" s="6" t="s">
         <v>261</v>
@@ -5369,7 +5369,7 @@
         <v>261</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E166" s="6" t="s">
         <v>261</v>
@@ -5384,7 +5384,7 @@
         <v>261</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E167" s="6" t="s">
         <v>261</v>
@@ -5575,7 +5575,7 @@
         <v>261</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E184" s="6" t="s">
         <v>261</v>
@@ -5601,7 +5601,7 @@
         <v>261</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E186" s="6" t="s">
         <v>261</v>
@@ -6287,7 +6287,7 @@
         <v>261</v>
       </c>
       <c r="D248" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E248" s="6" t="s">
         <v>261</v>
@@ -6882,13 +6882,13 @@
         <v>295</v>
       </c>
       <c r="B302" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D302" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E302" s="6" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F302" s="4"/>
     </row>
@@ -6905,16 +6905,16 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B304" t="s">
+        <v>54</v>
+      </c>
+      <c r="D304" s="7" t="s">
         <v>1026</v>
       </c>
-      <c r="B304" t="s">
-        <v>54</v>
-      </c>
-      <c r="D304" s="7" t="s">
-        <v>1027</v>
-      </c>
       <c r="E304" s="6" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F304" s="2"/>
     </row>
@@ -9549,7 +9549,7 @@
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B544" t="s">
         <v>444</v>
@@ -10248,7 +10248,7 @@
         <v>261</v>
       </c>
       <c r="D607" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E607" s="6" t="s">
         <v>261</v>
@@ -10571,7 +10571,7 @@
         <v>261</v>
       </c>
       <c r="D636" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E636" s="6" t="s">
         <v>261</v>
@@ -10927,7 +10927,7 @@
         <v>54</v>
       </c>
       <c r="D668" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E668" s="6" t="s">
         <v>54</v>
@@ -11695,7 +11695,7 @@
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A738" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B738" t="s">
         <v>444</v>
@@ -11706,13 +11706,13 @@
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A739" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B739" t="s">
         <v>54</v>
       </c>
       <c r="D739" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E739" s="6" t="s">
         <v>54</v>
@@ -11914,7 +11914,7 @@
         <v>54</v>
       </c>
       <c r="D757" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E757" s="6" t="s">
         <v>54</v>
@@ -11929,7 +11929,7 @@
         <v>261</v>
       </c>
       <c r="D758" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E758" s="6" t="s">
         <v>261</v>
@@ -11941,7 +11941,7 @@
         <v>749</v>
       </c>
       <c r="B759" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D759" s="7"/>
       <c r="E759" s="5"/>
@@ -11952,7 +11952,7 @@
         <v>750</v>
       </c>
       <c r="B760" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D760" s="7"/>
       <c r="E760" s="5"/>
@@ -11963,7 +11963,7 @@
         <v>751</v>
       </c>
       <c r="B761" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D761" s="7"/>
       <c r="E761" s="5"/>
@@ -11977,7 +11977,7 @@
         <v>54</v>
       </c>
       <c r="D762" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E762" s="6" t="s">
         <v>54</v>
@@ -11989,7 +11989,7 @@
         <v>753</v>
       </c>
       <c r="B763" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D763" s="7"/>
       <c r="E763" s="5"/>
@@ -12003,7 +12003,7 @@
         <v>261</v>
       </c>
       <c r="D764" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E764" s="6" t="s">
         <v>261</v>
@@ -12018,7 +12018,7 @@
         <v>261</v>
       </c>
       <c r="D765" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E765" s="6" t="s">
         <v>261</v>
@@ -12033,7 +12033,7 @@
         <v>444</v>
       </c>
       <c r="D766" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E766" s="6" t="s">
         <v>444</v>
@@ -12048,7 +12048,7 @@
         <v>444</v>
       </c>
       <c r="D767" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E767" s="6" t="s">
         <v>444</v>
@@ -12063,7 +12063,7 @@
         <v>444</v>
       </c>
       <c r="D768" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E768" s="6" t="s">
         <v>444</v>
@@ -12078,7 +12078,7 @@
         <v>444</v>
       </c>
       <c r="D769" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E769" s="6" t="s">
         <v>444</v>
@@ -12093,7 +12093,7 @@
         <v>261</v>
       </c>
       <c r="D770" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E770" s="6" t="s">
         <v>261</v>
@@ -12105,7 +12105,7 @@
         <v>761</v>
       </c>
       <c r="B771" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D771" s="7"/>
       <c r="E771" s="5"/>
@@ -12116,7 +12116,7 @@
         <v>762</v>
       </c>
       <c r="B772" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D772" s="7"/>
       <c r="E772" s="5"/>
@@ -12127,7 +12127,7 @@
         <v>763</v>
       </c>
       <c r="B773" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D773" s="7"/>
       <c r="E773" s="5"/>
@@ -12138,7 +12138,7 @@
         <v>764</v>
       </c>
       <c r="B774" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D774" s="7"/>
       <c r="E774" s="5"/>
@@ -12149,7 +12149,7 @@
         <v>765</v>
       </c>
       <c r="B775" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D775" s="7"/>
       <c r="E775" s="5"/>
@@ -12160,7 +12160,7 @@
         <v>766</v>
       </c>
       <c r="B776" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D776" s="7"/>
       <c r="E776" s="5"/>
@@ -12171,7 +12171,7 @@
         <v>767</v>
       </c>
       <c r="B777" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D777" s="7"/>
       <c r="E777" s="5"/>
@@ -12182,7 +12182,7 @@
         <v>768</v>
       </c>
       <c r="B778" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D778" s="7"/>
       <c r="E778" s="5"/>
@@ -12193,7 +12193,7 @@
         <v>769</v>
       </c>
       <c r="B779" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D779" s="7"/>
       <c r="E779" s="5"/>
@@ -12204,7 +12204,7 @@
         <v>770</v>
       </c>
       <c r="B780" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D780" s="7"/>
       <c r="E780" s="5"/>
@@ -12218,7 +12218,7 @@
         <v>261</v>
       </c>
       <c r="D781" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E781" s="6" t="s">
         <v>261</v>
@@ -12230,7 +12230,7 @@
         <v>772</v>
       </c>
       <c r="B782" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D782" s="7"/>
       <c r="E782" s="5"/>
@@ -12244,7 +12244,7 @@
         <v>444</v>
       </c>
       <c r="D783" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E783" s="6" t="s">
         <v>444</v>
@@ -12256,7 +12256,7 @@
         <v>774</v>
       </c>
       <c r="B784" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D784" s="7"/>
       <c r="E784" s="5"/>
@@ -12267,7 +12267,7 @@
         <v>775</v>
       </c>
       <c r="B785" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D785" s="7"/>
       <c r="E785" s="5"/>
@@ -12278,7 +12278,7 @@
         <v>776</v>
       </c>
       <c r="B786" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D786" s="7"/>
       <c r="E786" s="5"/>
@@ -12289,7 +12289,7 @@
         <v>777</v>
       </c>
       <c r="B787" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D787" s="7"/>
       <c r="E787" s="5"/>
@@ -12300,7 +12300,7 @@
         <v>778</v>
       </c>
       <c r="B788" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D788" s="7"/>
       <c r="E788" s="5"/>
@@ -12311,7 +12311,7 @@
         <v>779</v>
       </c>
       <c r="B789" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D789" s="7"/>
       <c r="E789" s="5"/>
@@ -12322,7 +12322,7 @@
         <v>780</v>
       </c>
       <c r="B790" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D790" s="7"/>
       <c r="E790" s="5"/>
@@ -12333,7 +12333,7 @@
         <v>781</v>
       </c>
       <c r="B791" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D791" s="7"/>
       <c r="E791" s="5"/>
@@ -12344,7 +12344,7 @@
         <v>782</v>
       </c>
       <c r="B792" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D792" s="7"/>
       <c r="E792" s="5"/>
@@ -12355,7 +12355,7 @@
         <v>783</v>
       </c>
       <c r="B793" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D793" s="7"/>
       <c r="E793" s="5"/>
@@ -12366,7 +12366,7 @@
         <v>784</v>
       </c>
       <c r="B794" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D794" s="7"/>
       <c r="E794" s="5"/>
@@ -12380,7 +12380,7 @@
         <v>444</v>
       </c>
       <c r="D795" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E795" s="6" t="s">
         <v>444</v>
@@ -12392,7 +12392,7 @@
         <v>786</v>
       </c>
       <c r="B796" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D796" s="7"/>
       <c r="E796" s="5"/>
@@ -12403,7 +12403,7 @@
         <v>787</v>
       </c>
       <c r="B797" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D797" s="7"/>
       <c r="E797" s="5"/>
@@ -12414,7 +12414,7 @@
         <v>788</v>
       </c>
       <c r="B798" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D798" s="7"/>
       <c r="E798" s="5"/>
@@ -12425,7 +12425,7 @@
         <v>789</v>
       </c>
       <c r="B799" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D799" s="7"/>
       <c r="E799" s="5"/>
@@ -12436,7 +12436,7 @@
         <v>790</v>
       </c>
       <c r="B800" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D800" s="7"/>
       <c r="E800" s="5"/>
@@ -12447,7 +12447,7 @@
         <v>791</v>
       </c>
       <c r="B801" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D801" s="7"/>
       <c r="E801" s="5"/>
@@ -12458,7 +12458,7 @@
         <v>792</v>
       </c>
       <c r="B802" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D802" s="7"/>
       <c r="E802" s="5"/>
@@ -12469,7 +12469,7 @@
         <v>793</v>
       </c>
       <c r="B803" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D803" s="7"/>
       <c r="E803" s="5"/>
@@ -12480,7 +12480,7 @@
         <v>794</v>
       </c>
       <c r="B804" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D804" s="7"/>
       <c r="E804" s="5"/>
@@ -12491,7 +12491,7 @@
         <v>795</v>
       </c>
       <c r="B805" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D805" s="7"/>
       <c r="E805" s="5"/>
@@ -12502,7 +12502,7 @@
         <v>796</v>
       </c>
       <c r="B806" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D806" s="7"/>
       <c r="E806" s="5"/>
@@ -12513,7 +12513,7 @@
         <v>797</v>
       </c>
       <c r="B807" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D807" s="7"/>
       <c r="E807" s="5"/>
@@ -12524,7 +12524,7 @@
         <v>798</v>
       </c>
       <c r="B808" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D808" s="7"/>
       <c r="E808" s="5"/>
@@ -12535,7 +12535,7 @@
         <v>799</v>
       </c>
       <c r="B809" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D809" s="7"/>
       <c r="E809" s="5"/>
@@ -12546,7 +12546,7 @@
         <v>800</v>
       </c>
       <c r="B810" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D810" s="7"/>
       <c r="E810" s="5"/>
@@ -12557,7 +12557,7 @@
         <v>801</v>
       </c>
       <c r="B811" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D811" s="7"/>
       <c r="E811" s="5"/>
@@ -12568,7 +12568,7 @@
         <v>802</v>
       </c>
       <c r="B812" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D812" s="7"/>
       <c r="E812" s="5"/>
@@ -12579,7 +12579,7 @@
         <v>803</v>
       </c>
       <c r="B813" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D813" s="7"/>
       <c r="E813" s="5"/>
@@ -12590,7 +12590,7 @@
         <v>804</v>
       </c>
       <c r="B814" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D814" s="7"/>
       <c r="E814" s="5"/>
@@ -12601,7 +12601,7 @@
         <v>805</v>
       </c>
       <c r="B815" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D815" s="7"/>
       <c r="E815" s="5"/>
@@ -12612,7 +12612,7 @@
         <v>806</v>
       </c>
       <c r="B816" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D816" s="7"/>
       <c r="E816" s="5"/>
@@ -12623,7 +12623,7 @@
         <v>807</v>
       </c>
       <c r="B817" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D817" s="7"/>
       <c r="E817" s="5"/>
@@ -12634,7 +12634,7 @@
         <v>808</v>
       </c>
       <c r="B818" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D818" s="7"/>
       <c r="E818" s="5"/>
@@ -12645,7 +12645,7 @@
         <v>809</v>
       </c>
       <c r="B819" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D819" s="7"/>
       <c r="E819" s="5"/>
@@ -12656,7 +12656,7 @@
         <v>810</v>
       </c>
       <c r="B820" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D820" s="7"/>
       <c r="E820" s="5"/>
@@ -12667,7 +12667,7 @@
         <v>811</v>
       </c>
       <c r="B821" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D821" s="7"/>
       <c r="E821" s="5"/>
@@ -12678,7 +12678,7 @@
         <v>812</v>
       </c>
       <c r="B822" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D822" s="7"/>
       <c r="E822" s="5"/>
@@ -12689,7 +12689,7 @@
         <v>813</v>
       </c>
       <c r="B823" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D823" s="7"/>
       <c r="E823" s="5"/>
@@ -12700,7 +12700,7 @@
         <v>814</v>
       </c>
       <c r="B824" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D824" s="7"/>
       <c r="E824" s="5"/>
@@ -12711,7 +12711,7 @@
         <v>815</v>
       </c>
       <c r="B825" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D825" s="7"/>
       <c r="E825" s="5"/>
@@ -12722,7 +12722,7 @@
         <v>816</v>
       </c>
       <c r="B826" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D826" s="7"/>
       <c r="E826" s="5"/>
@@ -12733,7 +12733,7 @@
         <v>817</v>
       </c>
       <c r="B827" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D827" s="7"/>
       <c r="E827" s="5"/>
@@ -12744,7 +12744,7 @@
         <v>818</v>
       </c>
       <c r="B828" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D828" s="7"/>
       <c r="E828" s="5"/>
@@ -12755,7 +12755,7 @@
         <v>819</v>
       </c>
       <c r="B829" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D829" s="7"/>
       <c r="E829" s="5"/>
@@ -12766,7 +12766,7 @@
         <v>820</v>
       </c>
       <c r="B830" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D830" s="7"/>
       <c r="E830" s="5"/>
@@ -12777,7 +12777,7 @@
         <v>821</v>
       </c>
       <c r="B831" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D831" s="7"/>
       <c r="E831" s="5"/>
@@ -12788,7 +12788,7 @@
         <v>822</v>
       </c>
       <c r="B832" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D832" s="7"/>
       <c r="E832" s="5"/>
@@ -12799,7 +12799,7 @@
         <v>823</v>
       </c>
       <c r="B833" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D833" s="7"/>
       <c r="E833" s="5"/>
@@ -12810,7 +12810,7 @@
         <v>824</v>
       </c>
       <c r="B834" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D834" s="7"/>
       <c r="E834" s="5"/>
@@ -12821,7 +12821,7 @@
         <v>825</v>
       </c>
       <c r="B835" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D835" s="7"/>
       <c r="E835" s="5"/>
@@ -12832,7 +12832,7 @@
         <v>826</v>
       </c>
       <c r="B836" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D836" s="7"/>
       <c r="E836" s="5"/>
@@ -12843,7 +12843,7 @@
         <v>827</v>
       </c>
       <c r="B837" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D837" s="7"/>
       <c r="E837" s="5"/>
@@ -12854,7 +12854,7 @@
         <v>828</v>
       </c>
       <c r="B838" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D838" s="7"/>
       <c r="E838" s="5"/>
@@ -12865,7 +12865,7 @@
         <v>829</v>
       </c>
       <c r="B839" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D839" s="7"/>
       <c r="E839" s="5"/>
@@ -12876,7 +12876,7 @@
         <v>830</v>
       </c>
       <c r="B840" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D840" s="7"/>
       <c r="E840" s="5"/>
@@ -12887,7 +12887,7 @@
         <v>831</v>
       </c>
       <c r="B841" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D841" s="7"/>
       <c r="E841" s="5"/>
@@ -12898,7 +12898,7 @@
         <v>832</v>
       </c>
       <c r="B842" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D842" s="7"/>
       <c r="E842" s="5"/>
@@ -12909,7 +12909,7 @@
         <v>833</v>
       </c>
       <c r="B843" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D843" s="7"/>
       <c r="E843" s="5"/>
@@ -12920,7 +12920,7 @@
         <v>834</v>
       </c>
       <c r="B844" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D844" s="7"/>
       <c r="E844" s="5"/>
@@ -12934,7 +12934,7 @@
         <v>444</v>
       </c>
       <c r="D845" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E845" s="5"/>
       <c r="F845" s="2"/>
@@ -12944,7 +12944,7 @@
         <v>836</v>
       </c>
       <c r="B846" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D846" s="7"/>
       <c r="E846" s="5"/>
@@ -12955,7 +12955,7 @@
         <v>837</v>
       </c>
       <c r="B847" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D847" s="7"/>
       <c r="E847" s="5"/>
@@ -12966,7 +12966,7 @@
         <v>838</v>
       </c>
       <c r="B848" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D848" s="7"/>
       <c r="E848" s="5"/>
@@ -12977,7 +12977,7 @@
         <v>839</v>
       </c>
       <c r="B849" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D849" s="7"/>
       <c r="E849" s="5"/>
@@ -12988,7 +12988,7 @@
         <v>840</v>
       </c>
       <c r="B850" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D850" s="7"/>
       <c r="E850" s="5"/>
@@ -12999,7 +12999,7 @@
         <v>841</v>
       </c>
       <c r="B851" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D851" s="7"/>
       <c r="E851" s="5"/>
@@ -13010,7 +13010,7 @@
         <v>842</v>
       </c>
       <c r="B852" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D852" s="7"/>
       <c r="E852" s="5"/>
@@ -13021,7 +13021,7 @@
         <v>843</v>
       </c>
       <c r="B853" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D853" s="7"/>
       <c r="E853" s="5"/>
@@ -13032,7 +13032,7 @@
         <v>844</v>
       </c>
       <c r="B854" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D854" s="7"/>
       <c r="E854" s="5"/>
@@ -13043,7 +13043,7 @@
         <v>845</v>
       </c>
       <c r="B855" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D855" s="7"/>
       <c r="E855" s="5"/>
@@ -13054,7 +13054,7 @@
         <v>846</v>
       </c>
       <c r="B856" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D856" s="7"/>
       <c r="E856" s="5"/>
@@ -13065,7 +13065,7 @@
         <v>847</v>
       </c>
       <c r="B857" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D857" s="7"/>
       <c r="E857" s="5"/>
@@ -13076,7 +13076,7 @@
         <v>848</v>
       </c>
       <c r="B858" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D858" s="7"/>
       <c r="E858" s="5"/>
@@ -13087,7 +13087,7 @@
         <v>849</v>
       </c>
       <c r="B859" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D859" s="7"/>
       <c r="E859" s="5"/>
@@ -13098,7 +13098,7 @@
         <v>850</v>
       </c>
       <c r="B860" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D860" s="7"/>
       <c r="E860" s="5"/>
@@ -13109,7 +13109,7 @@
         <v>851</v>
       </c>
       <c r="B861" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D861" s="7"/>
       <c r="E861" s="5"/>
@@ -13120,7 +13120,7 @@
         <v>852</v>
       </c>
       <c r="B862" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D862" s="7"/>
       <c r="E862" s="5"/>
@@ -13131,7 +13131,7 @@
         <v>853</v>
       </c>
       <c r="B863" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D863" s="7"/>
       <c r="E863" s="5"/>
@@ -13142,7 +13142,7 @@
         <v>854</v>
       </c>
       <c r="B864" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D864" s="7"/>
       <c r="E864" s="5"/>
@@ -13153,7 +13153,7 @@
         <v>855</v>
       </c>
       <c r="B865" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D865" s="7"/>
       <c r="E865" s="5"/>
@@ -13164,7 +13164,7 @@
         <v>856</v>
       </c>
       <c r="B866" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D866" s="7"/>
       <c r="E866" s="5"/>
@@ -13178,7 +13178,7 @@
         <v>261</v>
       </c>
       <c r="D867" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E867" s="6" t="s">
         <v>261</v>
@@ -13193,7 +13193,7 @@
         <v>261</v>
       </c>
       <c r="D868" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E868" s="6" t="s">
         <v>261</v>
@@ -13205,7 +13205,7 @@
         <v>859</v>
       </c>
       <c r="B869" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D869" s="7"/>
       <c r="E869" s="5"/>
@@ -13219,7 +13219,7 @@
         <v>261</v>
       </c>
       <c r="D870" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E870" s="6" t="s">
         <v>261</v>
@@ -13231,7 +13231,7 @@
         <v>861</v>
       </c>
       <c r="B871" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D871" s="7"/>
       <c r="E871" s="5"/>
@@ -13245,7 +13245,7 @@
         <v>444</v>
       </c>
       <c r="D872" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E872" s="6" t="s">
         <v>444</v>
@@ -13257,7 +13257,7 @@
         <v>863</v>
       </c>
       <c r="B873" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D873" s="7"/>
       <c r="E873" s="5"/>
@@ -13268,7 +13268,7 @@
         <v>864</v>
       </c>
       <c r="B874" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D874" s="7"/>
       <c r="E874" s="5"/>
@@ -13279,7 +13279,7 @@
         <v>865</v>
       </c>
       <c r="B875" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D875" s="7"/>
       <c r="E875" s="5"/>
@@ -13290,7 +13290,7 @@
         <v>866</v>
       </c>
       <c r="B876" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D876" s="7"/>
       <c r="E876" s="5"/>
@@ -13301,7 +13301,7 @@
         <v>867</v>
       </c>
       <c r="B877" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D877" s="7"/>
       <c r="E877" s="5"/>
@@ -13312,7 +13312,7 @@
         <v>868</v>
       </c>
       <c r="B878" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D878" s="7"/>
       <c r="E878" s="5"/>
@@ -13323,7 +13323,7 @@
         <v>869</v>
       </c>
       <c r="B879" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D879" s="7"/>
       <c r="E879" s="5"/>
@@ -13334,7 +13334,7 @@
         <v>870</v>
       </c>
       <c r="B880" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D880" s="7"/>
       <c r="E880" s="5"/>
@@ -13345,7 +13345,7 @@
         <v>871</v>
       </c>
       <c r="B881" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D881" s="7"/>
       <c r="E881" s="5"/>
@@ -13356,7 +13356,7 @@
         <v>872</v>
       </c>
       <c r="B882" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D882" s="7"/>
       <c r="E882" s="5"/>
@@ -13367,7 +13367,7 @@
         <v>873</v>
       </c>
       <c r="B883" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D883" s="7"/>
       <c r="E883" s="5"/>
@@ -13378,7 +13378,7 @@
         <v>874</v>
       </c>
       <c r="B884" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D884" s="7"/>
       <c r="E884" s="5"/>
@@ -13389,7 +13389,7 @@
         <v>875</v>
       </c>
       <c r="B885" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D885" s="7"/>
       <c r="E885" s="5"/>
@@ -13400,7 +13400,7 @@
         <v>876</v>
       </c>
       <c r="B886" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D886" s="7"/>
       <c r="E886" s="5"/>
@@ -13411,7 +13411,7 @@
         <v>877</v>
       </c>
       <c r="B887" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D887" s="7"/>
       <c r="E887" s="5"/>
@@ -13422,7 +13422,7 @@
         <v>878</v>
       </c>
       <c r="B888" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D888" s="7"/>
       <c r="E888" s="5"/>
@@ -13433,7 +13433,7 @@
         <v>879</v>
       </c>
       <c r="B889" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D889" s="7"/>
       <c r="E889" s="5"/>
@@ -13444,7 +13444,7 @@
         <v>880</v>
       </c>
       <c r="B890" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D890" s="7"/>
       <c r="E890" s="5"/>
@@ -13455,7 +13455,7 @@
         <v>881</v>
       </c>
       <c r="B891" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D891" s="7"/>
       <c r="E891" s="5"/>
@@ -13466,7 +13466,7 @@
         <v>882</v>
       </c>
       <c r="B892" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D892" s="7"/>
       <c r="E892" s="5"/>
@@ -13477,7 +13477,7 @@
         <v>883</v>
       </c>
       <c r="B893" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D893" s="7"/>
       <c r="E893" s="5"/>
@@ -13488,7 +13488,7 @@
         <v>884</v>
       </c>
       <c r="B894" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D894" s="7"/>
       <c r="E894" s="5"/>
@@ -13499,7 +13499,7 @@
         <v>885</v>
       </c>
       <c r="B895" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D895" s="7"/>
       <c r="E895" s="5"/>
@@ -13510,7 +13510,7 @@
         <v>886</v>
       </c>
       <c r="B896" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D896" s="7"/>
       <c r="E896" s="5"/>
@@ -13521,7 +13521,7 @@
         <v>887</v>
       </c>
       <c r="B897" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D897" s="7"/>
       <c r="E897" s="5"/>
@@ -13532,7 +13532,7 @@
         <v>888</v>
       </c>
       <c r="B898" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D898" s="7"/>
       <c r="E898" s="5"/>
@@ -13543,7 +13543,7 @@
         <v>889</v>
       </c>
       <c r="B899" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D899" s="7"/>
       <c r="E899" s="5"/>
@@ -13554,7 +13554,7 @@
         <v>890</v>
       </c>
       <c r="B900" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D900" s="7"/>
       <c r="E900" s="5"/>
@@ -13565,7 +13565,7 @@
         <v>891</v>
       </c>
       <c r="B901" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D901" s="7"/>
       <c r="E901" s="5"/>
@@ -13576,7 +13576,7 @@
         <v>892</v>
       </c>
       <c r="B902" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D902" s="7"/>
       <c r="E902" s="5"/>
@@ -13587,7 +13587,7 @@
         <v>893</v>
       </c>
       <c r="B903" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D903" s="7"/>
       <c r="E903" s="5"/>
@@ -13598,7 +13598,7 @@
         <v>894</v>
       </c>
       <c r="B904" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D904" s="7"/>
       <c r="E904" s="5"/>
@@ -13609,7 +13609,7 @@
         <v>895</v>
       </c>
       <c r="B905" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D905" s="7"/>
       <c r="E905" s="5"/>
@@ -13620,7 +13620,7 @@
         <v>896</v>
       </c>
       <c r="B906" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D906" s="7"/>
       <c r="E906" s="5"/>
@@ -13631,7 +13631,7 @@
         <v>897</v>
       </c>
       <c r="B907" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D907" s="7"/>
       <c r="E907" s="5"/>
@@ -13642,7 +13642,7 @@
         <v>898</v>
       </c>
       <c r="B908" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D908" s="7"/>
       <c r="E908" s="5"/>
@@ -13653,7 +13653,7 @@
         <v>899</v>
       </c>
       <c r="B909" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D909" s="7"/>
       <c r="E909" s="5"/>
@@ -13664,7 +13664,7 @@
         <v>900</v>
       </c>
       <c r="B910" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D910" s="7"/>
       <c r="E910" s="5"/>
@@ -13675,7 +13675,7 @@
         <v>901</v>
       </c>
       <c r="B911" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D911" s="7"/>
       <c r="E911" s="5"/>
@@ -13686,7 +13686,7 @@
         <v>902</v>
       </c>
       <c r="B912" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D912" s="7"/>
       <c r="E912" s="5"/>
@@ -13697,7 +13697,7 @@
         <v>903</v>
       </c>
       <c r="B913" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D913" s="7"/>
       <c r="E913" s="5"/>
@@ -13708,7 +13708,7 @@
         <v>904</v>
       </c>
       <c r="B914" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D914" s="7"/>
       <c r="E914" s="5"/>
@@ -13719,7 +13719,7 @@
         <v>905</v>
       </c>
       <c r="B915" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D915" s="7"/>
       <c r="E915" s="5"/>
@@ -13730,7 +13730,7 @@
         <v>906</v>
       </c>
       <c r="B916" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D916" s="7"/>
       <c r="E916" s="5"/>
@@ -13741,7 +13741,7 @@
         <v>907</v>
       </c>
       <c r="B917" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D917" s="7"/>
       <c r="E917" s="5"/>
@@ -13752,7 +13752,7 @@
         <v>908</v>
       </c>
       <c r="B918" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D918" s="7"/>
       <c r="E918" s="5"/>
@@ -13763,7 +13763,7 @@
         <v>909</v>
       </c>
       <c r="B919" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D919" s="7"/>
       <c r="E919" s="5"/>
@@ -13774,7 +13774,7 @@
         <v>910</v>
       </c>
       <c r="B920" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D920" s="7"/>
       <c r="E920" s="5"/>
@@ -13785,7 +13785,7 @@
         <v>911</v>
       </c>
       <c r="B921" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D921" s="7"/>
       <c r="E921" s="5"/>
@@ -13796,7 +13796,7 @@
         <v>912</v>
       </c>
       <c r="B922" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D922" s="7"/>
       <c r="E922" s="5"/>
@@ -13807,7 +13807,7 @@
         <v>913</v>
       </c>
       <c r="B923" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D923" s="7"/>
       <c r="E923" s="5"/>
@@ -13818,7 +13818,7 @@
         <v>914</v>
       </c>
       <c r="B924" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D924" s="7"/>
       <c r="E924" s="5"/>
@@ -13829,7 +13829,7 @@
         <v>915</v>
       </c>
       <c r="B925" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D925" s="7"/>
       <c r="E925" s="5"/>
@@ -13840,7 +13840,7 @@
         <v>916</v>
       </c>
       <c r="B926" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D926" s="7"/>
       <c r="E926" s="5"/>
@@ -13851,7 +13851,7 @@
         <v>917</v>
       </c>
       <c r="B927" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D927" s="7"/>
       <c r="E927" s="5"/>
@@ -13862,7 +13862,7 @@
         <v>918</v>
       </c>
       <c r="B928" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D928" s="7"/>
       <c r="E928" s="5"/>
@@ -13873,7 +13873,7 @@
         <v>919</v>
       </c>
       <c r="B929" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D929" s="7"/>
       <c r="E929" s="5"/>
@@ -13884,7 +13884,7 @@
         <v>920</v>
       </c>
       <c r="B930" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D930" s="7"/>
       <c r="E930" s="5"/>
@@ -13895,7 +13895,7 @@
         <v>921</v>
       </c>
       <c r="B931" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D931" s="7"/>
       <c r="E931" s="5"/>
@@ -13906,7 +13906,7 @@
         <v>922</v>
       </c>
       <c r="B932" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D932" s="7"/>
       <c r="E932" s="5"/>
@@ -13917,7 +13917,7 @@
         <v>923</v>
       </c>
       <c r="B933" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D933" s="7"/>
       <c r="E933" s="5"/>
@@ -13928,7 +13928,7 @@
         <v>924</v>
       </c>
       <c r="B934" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D934" s="7"/>
       <c r="E934" s="5"/>
@@ -13939,7 +13939,7 @@
         <v>925</v>
       </c>
       <c r="B935" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D935" s="7"/>
       <c r="E935" s="5"/>
@@ -13950,7 +13950,7 @@
         <v>926</v>
       </c>
       <c r="B936" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D936" s="7"/>
       <c r="E936" s="5"/>
@@ -13961,7 +13961,7 @@
         <v>927</v>
       </c>
       <c r="B937" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D937" s="7"/>
       <c r="E937" s="5"/>
@@ -13972,7 +13972,7 @@
         <v>928</v>
       </c>
       <c r="B938" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D938" s="7"/>
       <c r="E938" s="5"/>
@@ -13983,7 +13983,7 @@
         <v>929</v>
       </c>
       <c r="B939" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D939" s="7"/>
       <c r="E939" s="5"/>
@@ -13994,7 +13994,7 @@
         <v>930</v>
       </c>
       <c r="B940" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D940" s="7"/>
       <c r="E940" s="5"/>
@@ -14005,7 +14005,7 @@
         <v>931</v>
       </c>
       <c r="B941" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D941" s="7"/>
       <c r="E941" s="5"/>
@@ -14016,7 +14016,7 @@
         <v>932</v>
       </c>
       <c r="B942" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D942" s="7"/>
       <c r="E942" s="5"/>
@@ -14027,7 +14027,7 @@
         <v>933</v>
       </c>
       <c r="B943" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D943" s="7"/>
       <c r="E943" s="5"/>
@@ -14038,7 +14038,7 @@
         <v>934</v>
       </c>
       <c r="B944" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D944" s="7"/>
       <c r="E944" s="5"/>
@@ -14049,7 +14049,7 @@
         <v>935</v>
       </c>
       <c r="B945" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D945" s="7"/>
       <c r="E945" s="5"/>
@@ -14060,7 +14060,7 @@
         <v>936</v>
       </c>
       <c r="B946" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D946" s="7"/>
       <c r="E946" s="5"/>
@@ -14071,7 +14071,7 @@
         <v>937</v>
       </c>
       <c r="B947" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D947" s="7"/>
       <c r="E947" s="5"/>
@@ -14082,7 +14082,7 @@
         <v>938</v>
       </c>
       <c r="B948" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D948" s="7"/>
       <c r="E948" s="5"/>
@@ -14093,7 +14093,7 @@
         <v>939</v>
       </c>
       <c r="B949" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D949" s="7"/>
       <c r="E949" s="5"/>
@@ -14107,7 +14107,7 @@
         <v>444</v>
       </c>
       <c r="D950" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E950" s="6" t="s">
         <v>444</v>
@@ -14119,7 +14119,7 @@
         <v>941</v>
       </c>
       <c r="B951" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D951" s="7"/>
       <c r="E951" s="5"/>
@@ -14130,7 +14130,7 @@
         <v>942</v>
       </c>
       <c r="B952" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D952" s="7"/>
       <c r="E952" s="5"/>
@@ -14141,7 +14141,7 @@
         <v>943</v>
       </c>
       <c r="B953" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D953" s="7"/>
       <c r="E953" s="5"/>
@@ -14152,7 +14152,7 @@
         <v>944</v>
       </c>
       <c r="B954" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D954" s="7"/>
       <c r="E954" s="5"/>
@@ -14163,7 +14163,7 @@
         <v>945</v>
       </c>
       <c r="B955" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D955" s="7"/>
       <c r="E955" s="5"/>
@@ -14174,7 +14174,7 @@
         <v>946</v>
       </c>
       <c r="B956" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D956" s="7"/>
       <c r="E956" s="5"/>
@@ -14185,7 +14185,7 @@
         <v>947</v>
       </c>
       <c r="B957" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D957" s="7"/>
       <c r="E957" s="5"/>
@@ -14196,7 +14196,7 @@
         <v>948</v>
       </c>
       <c r="B958" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D958" s="7"/>
       <c r="E958" s="5"/>
@@ -14207,7 +14207,7 @@
         <v>949</v>
       </c>
       <c r="B959" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D959" s="7"/>
       <c r="E959" s="5"/>
@@ -14221,7 +14221,7 @@
         <v>261</v>
       </c>
       <c r="D960" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E960" s="6" t="s">
         <v>261</v>
@@ -14233,7 +14233,7 @@
         <v>951</v>
       </c>
       <c r="B961" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D961" s="7"/>
       <c r="E961" s="5"/>
@@ -14244,7 +14244,7 @@
         <v>952</v>
       </c>
       <c r="B962" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D962" s="7"/>
       <c r="E962" s="5"/>
@@ -14255,7 +14255,7 @@
         <v>953</v>
       </c>
       <c r="B963" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D963" s="7"/>
       <c r="E963" s="5"/>
@@ -14266,7 +14266,7 @@
         <v>954</v>
       </c>
       <c r="B964" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D964" s="7"/>
       <c r="E964" s="5"/>
@@ -14277,7 +14277,7 @@
         <v>955</v>
       </c>
       <c r="B965" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D965" s="7"/>
       <c r="E965" s="5"/>
@@ -14288,7 +14288,7 @@
         <v>956</v>
       </c>
       <c r="B966" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D966" s="7"/>
       <c r="E966" s="5"/>
@@ -14299,7 +14299,7 @@
         <v>957</v>
       </c>
       <c r="B967" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D967" s="7"/>
       <c r="E967" s="5"/>
@@ -14313,7 +14313,7 @@
         <v>261</v>
       </c>
       <c r="D968" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E968" s="6" t="s">
         <v>261</v>
@@ -14325,7 +14325,7 @@
         <v>959</v>
       </c>
       <c r="B969" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D969" s="7"/>
       <c r="E969" s="5"/>
@@ -14350,7 +14350,7 @@
         <v>444</v>
       </c>
       <c r="D971" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E971" s="5"/>
       <c r="F971" s="2"/>
@@ -14492,13 +14492,13 @@
         <v>975</v>
       </c>
       <c r="B984" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D984" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E984" s="6" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F984" s="2"/>
     </row>
@@ -14576,7 +14576,7 @@
         <v>261</v>
       </c>
       <c r="D991" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E991" s="6" t="s">
         <v>261</v>
@@ -14756,7 +14756,7 @@
         <v>261</v>
       </c>
       <c r="D1007" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E1007" s="6" t="s">
         <v>261</v>
@@ -14815,7 +14815,7 @@
         <v>444</v>
       </c>
       <c r="D1012" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E1012" s="6" t="s">
         <v>444</v>
@@ -14874,7 +14874,7 @@
         <v>444</v>
       </c>
       <c r="D1017" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E1017" s="6" t="s">
         <v>444</v>
@@ -14883,7 +14883,7 @@
     </row>
     <row r="1018" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1018" s="1" t="s">
-        <v>1009</v>
+        <v>1028</v>
       </c>
       <c r="B1018" t="s">
         <v>960</v>
@@ -14894,7 +14894,7 @@
     </row>
     <row r="1019" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1019" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B1019" t="s">
         <v>960</v>
@@ -14905,7 +14905,7 @@
     </row>
     <row r="1020" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1020" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B1020" t="s">
         <v>960</v>
@@ -14916,7 +14916,7 @@
     </row>
     <row r="1021" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1021" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B1021" t="s">
         <v>960</v>
